--- a/data/trans_orig/P1410-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>13624</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8108</v>
+        <v>7361</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21311</v>
+        <v>21489</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04990128225621952</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02969857268909026</v>
+        <v>0.02696220006153653</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07805847667319757</v>
+        <v>0.0787115000414331</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>4297</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10703</v>
+        <v>9823</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01647513974669612</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004007424674609041</v>
+        <v>0.004023190493119546</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04103348470852231</v>
+        <v>0.03766097752367257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -786,19 +786,19 @@
         <v>17921</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11179</v>
+        <v>11071</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27180</v>
+        <v>26308</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03356927258592612</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02094053476536944</v>
+        <v>0.0207380015701262</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05091299428594755</v>
+        <v>0.04927927892581642</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>259386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251699</v>
+        <v>251521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264902</v>
+        <v>265649</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9500987177437805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9219415233268025</v>
+        <v>0.9212884999585669</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9703014273109096</v>
+        <v>0.9730377999384634</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -836,19 +836,19 @@
         <v>256541</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250135</v>
+        <v>251015</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259793</v>
+        <v>259789</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9835248602533039</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9589665152914778</v>
+        <v>0.9623390224763274</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.995992575325391</v>
+        <v>0.9959768095068804</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>497</v>
@@ -857,19 +857,19 @@
         <v>515927</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>506668</v>
+        <v>507540</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>522669</v>
+        <v>522777</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9664307274140739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9490870057140526</v>
+        <v>0.9507207210741838</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9790594652346307</v>
+        <v>0.9792619984298738</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>30660</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21562</v>
+        <v>21259</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44627</v>
+        <v>44472</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06218127260399776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04373012917911921</v>
+        <v>0.04311563037718139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09050829048395624</v>
+        <v>0.09019326596382317</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -982,19 +982,19 @@
         <v>28822</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19394</v>
+        <v>19646</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39623</v>
+        <v>39870</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05719189774750481</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03848390231682801</v>
+        <v>0.0389839706705482</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07862530608972298</v>
+        <v>0.07911444907789242</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -1003,19 +1003,19 @@
         <v>59482</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46142</v>
+        <v>46267</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77697</v>
+        <v>76135</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05965937710188537</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04628022371063652</v>
+        <v>0.04640476053472969</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07792881929125167</v>
+        <v>0.07636255203167794</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>462415</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>448448</v>
+        <v>448603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>471513</v>
+        <v>471816</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9378187273960022</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9094917095160436</v>
+        <v>0.909806734036177</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9562698708208808</v>
+        <v>0.9568843696228186</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>470</v>
@@ -1053,19 +1053,19 @@
         <v>475127</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>464326</v>
+        <v>464079</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>484555</v>
+        <v>484303</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9428081022524952</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9213746939102772</v>
+        <v>0.9208855509221077</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9615160976831719</v>
+        <v>0.9610160293294518</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>907</v>
@@ -1074,19 +1074,19 @@
         <v>937542</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>919327</v>
+        <v>920889</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>950882</v>
+        <v>950757</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9403406228981146</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9220711807087483</v>
+        <v>0.923637447968322</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9537197762893634</v>
+        <v>0.9535952394652703</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>12881</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7534</v>
+        <v>7316</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22137</v>
+        <v>21922</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04039887571949654</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02362800473343782</v>
+        <v>0.02294411497805933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06942933028927353</v>
+        <v>0.06875366954432734</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1199,19 +1199,19 @@
         <v>12126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6199</v>
+        <v>6177</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19711</v>
+        <v>20106</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03615212598474375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01848102212243275</v>
+        <v>0.01841738979425827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05876547153882357</v>
+        <v>0.05994328380524538</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1220,19 +1220,19 @@
         <v>25007</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16220</v>
+        <v>16269</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36348</v>
+        <v>35855</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03822173609162301</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02479206792915677</v>
+        <v>0.02486633890260481</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05555597370550694</v>
+        <v>0.05480268716943969</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>305965</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296709</v>
+        <v>296924</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311312</v>
+        <v>311530</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9596011242805035</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9305706697107266</v>
+        <v>0.9312463304556726</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9763719952665622</v>
+        <v>0.9770558850219406</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>323</v>
@@ -1270,19 +1270,19 @@
         <v>323286</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>315701</v>
+        <v>315306</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>329213</v>
+        <v>329235</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9638478740152563</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9412345284611769</v>
+        <v>0.9400567161947546</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9815189778775674</v>
+        <v>0.9815826102057417</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>620</v>
@@ -1291,19 +1291,19 @@
         <v>629251</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>617910</v>
+        <v>618403</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638038</v>
+        <v>637989</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.961778263908377</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9444440262944931</v>
+        <v>0.9451973128305603</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9752079320708432</v>
+        <v>0.9751336610973952</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11418</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6884</v>
+        <v>6206</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19202</v>
+        <v>18808</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0318337126283707</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01919345700602326</v>
+        <v>0.01730210642158212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05353770954820646</v>
+        <v>0.05243896568441028</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1416,19 +1416,19 @@
         <v>8147</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3312</v>
+        <v>3913</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15134</v>
+        <v>15967</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02193262477264533</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008915892116556507</v>
+        <v>0.01053388906331449</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04074157414031081</v>
+        <v>0.04298425925373107</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1437,19 +1437,19 @@
         <v>19565</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11195</v>
+        <v>12690</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28833</v>
+        <v>28933</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02679648245292866</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01533261784207948</v>
+        <v>0.01738109555631715</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03949090489943394</v>
+        <v>0.03962761716576332</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>347253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339469</v>
+        <v>339863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>351787</v>
+        <v>352465</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9681662873716294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9464622904517931</v>
+        <v>0.9475610343155898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9808065429939767</v>
+        <v>0.9826978935784179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>376</v>
@@ -1487,19 +1487,19 @@
         <v>363309</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>356322</v>
+        <v>355489</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368144</v>
+        <v>367543</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9780673752273547</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9592584258596896</v>
+        <v>0.9570157407462703</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9910841078834439</v>
+        <v>0.9894661109366855</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>725</v>
@@ -1508,19 +1508,19 @@
         <v>710562</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>701294</v>
+        <v>701194</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>718932</v>
+        <v>717437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9732035175470714</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9605090951005661</v>
+        <v>0.9603723828342369</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9846673821579206</v>
+        <v>0.9826189044436829</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>10226</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5041</v>
+        <v>5245</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17917</v>
+        <v>17312</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05029978754474124</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02479403346337447</v>
+        <v>0.02579960922478382</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08812530239739298</v>
+        <v>0.08514973129060512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1633,19 +1633,19 @@
         <v>7686</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3035</v>
+        <v>3211</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14320</v>
+        <v>14852</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03700924237931748</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01461638565256582</v>
+        <v>0.01546338169195995</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06895441457439132</v>
+        <v>0.07151703394319643</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1654,19 +1654,19 @@
         <v>17912</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10316</v>
+        <v>10700</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28039</v>
+        <v>27457</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04358401673451764</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02510026040936289</v>
+        <v>0.0260359651380875</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06822637430638563</v>
+        <v>0.06681034197491248</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>193082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185391</v>
+        <v>185996</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198267</v>
+        <v>198063</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9497002124552588</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9118746976026071</v>
+        <v>0.9148502687093951</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9752059665366256</v>
+        <v>0.9742003907752164</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -1704,19 +1704,19 @@
         <v>199982</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193348</v>
+        <v>192816</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204633</v>
+        <v>204457</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9629907576206825</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9310455854256087</v>
+        <v>0.9284829660568031</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9853836143474343</v>
+        <v>0.98453661830804</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>385</v>
@@ -1725,19 +1725,19 @@
         <v>393064</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>382937</v>
+        <v>383519</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400660</v>
+        <v>400276</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9564159832654824</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9317736256936143</v>
+        <v>0.9331896580250877</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.974899739590637</v>
+        <v>0.9739640348619126</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>13412</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7656</v>
+        <v>7518</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21422</v>
+        <v>22199</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04952453812227099</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02826951869744852</v>
+        <v>0.02775961143874557</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07910240799631527</v>
+        <v>0.08197254805582896</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1850,19 +1850,19 @@
         <v>5559</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2183</v>
+        <v>2116</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12333</v>
+        <v>12262</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01998663889966375</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007847544433852004</v>
+        <v>0.00760765747654534</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04434049567593071</v>
+        <v>0.04408366469474933</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -1871,19 +1871,19 @@
         <v>18971</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11880</v>
+        <v>11914</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29637</v>
+        <v>28781</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03455830340076377</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0216417671059538</v>
+        <v>0.02170276918464202</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05398751112993081</v>
+        <v>0.05242802958995019</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>257399</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249389</v>
+        <v>248612</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263155</v>
+        <v>263293</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.950475461877729</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9208975920036852</v>
+        <v>0.918027451944171</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9717304813025515</v>
+        <v>0.9722403885612545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>265</v>
@@ -1921,19 +1921,19 @@
         <v>272585</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>265811</v>
+        <v>265882</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>275961</v>
+        <v>276028</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9800133611003362</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9556595043240701</v>
+        <v>0.9559163353052507</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9921524555661496</v>
+        <v>0.9923923425234547</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>517</v>
@@ -1942,19 +1942,19 @@
         <v>529984</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>519318</v>
+        <v>520174</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>537075</v>
+        <v>537041</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9654416965992363</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9460124888700693</v>
+        <v>0.9475719704100499</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9783582328940462</v>
+        <v>0.978297230815358</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>20435</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12592</v>
+        <v>12661</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29833</v>
+        <v>29877</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03322686305099671</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02047408827393263</v>
+        <v>0.02058641481905663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04850676183316453</v>
+        <v>0.04857810252944976</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -2067,19 +2067,19 @@
         <v>26271</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17037</v>
+        <v>17626</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37474</v>
+        <v>37511</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04116312852790847</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02669414816432425</v>
+        <v>0.02761783513162142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05871589302387245</v>
+        <v>0.05877477677551726</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -2088,19 +2088,19 @@
         <v>46707</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34795</v>
+        <v>34131</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60621</v>
+        <v>61393</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03726842835423181</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02776366137904008</v>
+        <v>0.02723436231864549</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04837126543036846</v>
+        <v>0.04898740637098677</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>594592</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>585194</v>
+        <v>585150</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>602435</v>
+        <v>602366</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9667731369490032</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9514932381668353</v>
+        <v>0.9514218974705502</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9795259117260674</v>
+        <v>0.9794135851809431</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>595</v>
@@ -2138,19 +2138,19 @@
         <v>611948</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>600745</v>
+        <v>600708</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>621182</v>
+        <v>620593</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9588368714720915</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9412841069761273</v>
+        <v>0.9412252232244828</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9733058518356758</v>
+        <v>0.9723821648683785</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1171</v>
@@ -2159,19 +2159,19 @@
         <v>1206539</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1192625</v>
+        <v>1191853</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1218451</v>
+        <v>1219115</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9627315716457682</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9516287345696316</v>
+        <v>0.9510125936290132</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9722363386209599</v>
+        <v>0.9727656376813545</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>37505</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27703</v>
+        <v>27148</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50505</v>
+        <v>50809</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05042400305213089</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03724540432652617</v>
+        <v>0.03649930907425284</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06790186769963483</v>
+        <v>0.06831019167192066</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -2284,19 +2284,19 @@
         <v>33793</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23121</v>
+        <v>22102</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47990</v>
+        <v>46499</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04312975306045425</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02950968182124935</v>
+        <v>0.0282092044912522</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06124969077749023</v>
+        <v>0.05934675073002942</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -2305,19 +2305,19 @@
         <v>71298</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56062</v>
+        <v>56265</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>89045</v>
+        <v>87728</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0466820384762052</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0367064998338916</v>
+        <v>0.03683968337791903</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05830215016512158</v>
+        <v>0.05743996552631055</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>706290</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>693290</v>
+        <v>692986</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>716092</v>
+        <v>716647</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9495759969478691</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9320981323003652</v>
+        <v>0.9316898083280793</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9627545956734739</v>
+        <v>0.9635006909257472</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>715</v>
@@ -2355,19 +2355,19 @@
         <v>749718</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>735521</v>
+        <v>737012</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>760390</v>
+        <v>761409</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9568702469395458</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9387503092225097</v>
+        <v>0.9406532492699701</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9704903181787511</v>
+        <v>0.9717907955087476</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1412</v>
@@ -2376,19 +2376,19 @@
         <v>1456008</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1438261</v>
+        <v>1439578</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1471244</v>
+        <v>1471041</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9533179615237948</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9416978498348784</v>
+        <v>0.9425600344736894</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9632935001661083</v>
+        <v>0.9631603166220809</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>150161</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>127786</v>
+        <v>127598</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>175363</v>
+        <v>175487</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04582912735317917</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03900027898647941</v>
+        <v>0.03894281461263312</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05352067719743866</v>
+        <v>0.05355845896557711</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>121</v>
@@ -2501,19 +2501,19 @@
         <v>126701</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>106448</v>
+        <v>105758</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>151570</v>
+        <v>152079</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03749427037481552</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03150103171217517</v>
+        <v>0.03129663667719019</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.044853782547829</v>
+        <v>0.04500453011085189</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>277</v>
@@ -2522,19 +2522,19 @@
         <v>276862</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>243463</v>
+        <v>243037</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>310138</v>
+        <v>308181</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04159742304938911</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03657946033317552</v>
+        <v>0.0365154633036894</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04659699817191171</v>
+        <v>0.046303080971237</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3126382</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3101180</v>
+        <v>3101056</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3148757</v>
+        <v>3148945</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9541708726468209</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9464793228025611</v>
+        <v>0.9464415410344228</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9609997210135205</v>
+        <v>0.9610571853873662</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3176</v>
@@ -2572,19 +2572,19 @@
         <v>3252496</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3227627</v>
+        <v>3227118</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3272749</v>
+        <v>3273439</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9625057296251844</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.955146217452171</v>
+        <v>0.9549954698891485</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9684989682878248</v>
+        <v>0.9687033633228099</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6234</v>
@@ -2593,19 +2593,19 @@
         <v>6378879</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6345603</v>
+        <v>6347560</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6412278</v>
+        <v>6412704</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9584025769506109</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9534030018280881</v>
+        <v>0.953696919028763</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9634205396668245</v>
+        <v>0.9634845366963105</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>9553</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4518</v>
+        <v>4589</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17635</v>
+        <v>17600</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03241328861449676</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01532894171828505</v>
+        <v>0.01557142002002862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05983313790068479</v>
+        <v>0.05971241775576804</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2962,19 +2962,19 @@
         <v>12524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6352</v>
+        <v>7262</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21337</v>
+        <v>22296</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04360119726972349</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0221125805570081</v>
+        <v>0.02528320642509789</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07428187107270588</v>
+        <v>0.07761852020914843</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -2983,19 +2983,19 @@
         <v>22078</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13753</v>
+        <v>13687</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32957</v>
+        <v>32618</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03793522079023057</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0236307214079385</v>
+        <v>0.02351713333214813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0566284223546807</v>
+        <v>0.05604672922270421</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>285185</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>277103</v>
+        <v>277138</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290220</v>
+        <v>290149</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9675867113855032</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9401668620993144</v>
+        <v>0.940287582244232</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.984671058281715</v>
+        <v>0.9844285799799714</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>245</v>
@@ -3033,19 +3033,19 @@
         <v>274721</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265908</v>
+        <v>264949</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>280893</v>
+        <v>279983</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9563988027302766</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.925718128927294</v>
+        <v>0.9223814797908516</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9778874194429917</v>
+        <v>0.9747167935749022</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>518</v>
@@ -3054,19 +3054,19 @@
         <v>559905</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>549026</v>
+        <v>549365</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>568230</v>
+        <v>568296</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9620647792097694</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9433715776453192</v>
+        <v>0.9439532707772953</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9763692785920615</v>
+        <v>0.9764828666678518</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>16084</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9600</v>
+        <v>9382</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26451</v>
+        <v>26505</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03181655543285712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01899070941844486</v>
+        <v>0.0185588349649018</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05232378619515594</v>
+        <v>0.05243024263973714</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -3179,19 +3179,19 @@
         <v>22081</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14491</v>
+        <v>14653</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33873</v>
+        <v>33593</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04215774592423616</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02766604492266639</v>
+        <v>0.02797679582094072</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0646716241243738</v>
+        <v>0.06413758635977936</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -3200,19 +3200,19 @@
         <v>38165</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27054</v>
+        <v>27606</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51660</v>
+        <v>52065</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03707876703833897</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02628363164363369</v>
+        <v>0.02682001858818924</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0501900390998265</v>
+        <v>0.05058368257087607</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>489443</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479076</v>
+        <v>479022</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495927</v>
+        <v>496145</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9681834445671429</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9476762138048441</v>
+        <v>0.9475697573602629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9810092905815553</v>
+        <v>0.9814411650350983</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>459</v>
@@ -3250,19 +3250,19 @@
         <v>501684</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>489892</v>
+        <v>490172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>509274</v>
+        <v>509112</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9578422540757638</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9353283758756262</v>
+        <v>0.9358624136402208</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9723339550773336</v>
+        <v>0.9720232041790594</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>917</v>
@@ -3271,19 +3271,19 @@
         <v>991127</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>977632</v>
+        <v>977227</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1002238</v>
+        <v>1001686</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.962921232961661</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9498099609001733</v>
+        <v>0.949416317429124</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9737163683563662</v>
+        <v>0.9731799814118107</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>16360</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9228</v>
+        <v>9416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26653</v>
+        <v>26740</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05048702145444448</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02847889228729994</v>
+        <v>0.02905783681322864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08224915509941273</v>
+        <v>0.08251965959732822</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -3396,19 +3396,19 @@
         <v>20133</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12835</v>
+        <v>12707</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32006</v>
+        <v>29180</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05903637297306505</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03763768518731848</v>
+        <v>0.03726043921014521</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09385476693706382</v>
+        <v>0.08556764309206578</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -3417,19 +3417,19 @@
         <v>36493</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25436</v>
+        <v>25439</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49189</v>
+        <v>49480</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05487079672706187</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03824581706619336</v>
+        <v>0.0382504023041112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07396148302135302</v>
+        <v>0.07439885690624831</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>307686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297393</v>
+        <v>297306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314818</v>
+        <v>314630</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9495129785455555</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9177508449005878</v>
+        <v>0.9174803404026718</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9715211077127002</v>
+        <v>0.9709421631867714</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>298</v>
@@ -3467,19 +3467,19 @@
         <v>320887</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>309014</v>
+        <v>311840</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328185</v>
+        <v>328313</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9409636270269349</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9061452330629364</v>
+        <v>0.9144323569079342</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9623623148126815</v>
+        <v>0.9627395607898548</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>602</v>
@@ -3488,19 +3488,19 @@
         <v>628573</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>615877</v>
+        <v>615586</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>639630</v>
+        <v>639627</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9451292032729381</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9260385169786474</v>
+        <v>0.9256011430937513</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9617541829338067</v>
+        <v>0.9617495976958883</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>22097</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13730</v>
+        <v>14505</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31934</v>
+        <v>33524</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05908471236010947</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03671367293190535</v>
+        <v>0.03878484876687157</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08538834123308646</v>
+        <v>0.08963938131627586</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -3613,19 +3613,19 @@
         <v>18344</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11108</v>
+        <v>11343</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28299</v>
+        <v>28832</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04716234770731934</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02855865397413048</v>
+        <v>0.02916388612960612</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0727577447923731</v>
+        <v>0.07412810812409877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -3634,19 +3634,19 @@
         <v>40440</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28771</v>
+        <v>28567</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54230</v>
+        <v>54567</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05300657059471779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03771053265058946</v>
+        <v>0.0374434526133109</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07108125744456806</v>
+        <v>0.0715222453914435</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>351885</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342048</v>
+        <v>340458</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360252</v>
+        <v>359477</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9409152876398905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9146116587669134</v>
+        <v>0.910360618683724</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9632863270680947</v>
+        <v>0.9612151512331284</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>353</v>
@@ -3684,19 +3684,19 @@
         <v>370607</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>360652</v>
+        <v>360119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>377843</v>
+        <v>377608</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9528376522926807</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9272422552076272</v>
+        <v>0.9258718918759011</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9714413460258697</v>
+        <v>0.9708361138703938</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>676</v>
@@ -3705,19 +3705,19 @@
         <v>722493</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>708703</v>
+        <v>708366</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>734162</v>
+        <v>734366</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9469934294052822</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9289187425554319</v>
+        <v>0.9284777546085565</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9622894673494107</v>
+        <v>0.9625565473866892</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>6604</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2558</v>
+        <v>2335</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14110</v>
+        <v>13249</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03106222570720938</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01203316295272824</v>
+        <v>0.0109808996902927</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06636538350212533</v>
+        <v>0.06231275487495323</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3830,19 +3830,19 @@
         <v>11351</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6288</v>
+        <v>5372</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20322</v>
+        <v>18905</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05169257754477885</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02863645077797062</v>
+        <v>0.02446170471622594</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09254607268947693</v>
+        <v>0.086091290452883</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3851,19 +3851,19 @@
         <v>17956</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11196</v>
+        <v>10712</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27408</v>
+        <v>28049</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04154381951425191</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02590453021780467</v>
+        <v>0.02478327765485861</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06341445645226336</v>
+        <v>0.06489672732397316</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>206014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198508</v>
+        <v>199369</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210060</v>
+        <v>210283</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9689377742927906</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9336346164978745</v>
+        <v>0.9376872451250468</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9879668370472702</v>
+        <v>0.9890191003097074</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -3901,19 +3901,19 @@
         <v>208240</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199269</v>
+        <v>200686</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213303</v>
+        <v>214219</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9483074224552211</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.907453927310523</v>
+        <v>0.9139087095471169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9713635492220294</v>
+        <v>0.9755382952837739</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>391</v>
@@ -3922,19 +3922,19 @@
         <v>414253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>404801</v>
+        <v>404160</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>421013</v>
+        <v>421497</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9584561804857481</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9365855435477366</v>
+        <v>0.9351032726760269</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9740954697821953</v>
+        <v>0.9752167223451415</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>13575</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7260</v>
+        <v>7353</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21691</v>
+        <v>22261</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04954778452203969</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.026497953721643</v>
+        <v>0.02683737018195622</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07916907834428299</v>
+        <v>0.08124888314580286</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -4047,19 +4047,19 @@
         <v>18740</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11257</v>
+        <v>11288</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27576</v>
+        <v>28379</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06738821142090341</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04047828878443811</v>
+        <v>0.04059036113019366</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0991595697019893</v>
+        <v>0.1020463316849254</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -4068,19 +4068,19 @@
         <v>32316</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23221</v>
+        <v>21952</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45300</v>
+        <v>44657</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05853448222265496</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04206040836429178</v>
+        <v>0.039762278143939</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08205376452530339</v>
+        <v>0.08088931626994438</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>260406</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252290</v>
+        <v>251720</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266721</v>
+        <v>266628</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9504522154779603</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.920830921655717</v>
+        <v>0.9187511168541972</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9735020462783569</v>
+        <v>0.9731626298180438</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>250</v>
@@ -4118,19 +4118,19 @@
         <v>259356</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>250520</v>
+        <v>249717</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>266839</v>
+        <v>266808</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9326117885790965</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9008404302980108</v>
+        <v>0.8979536683150741</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9595217112155618</v>
+        <v>0.9594096388698062</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>498</v>
@@ -4139,19 +4139,19 @@
         <v>519761</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>506777</v>
+        <v>507420</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>528856</v>
+        <v>530125</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.941465517777345</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9179462354746967</v>
+        <v>0.9191106837300557</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9579395916357082</v>
+        <v>0.9602377218560609</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>29836</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19736</v>
+        <v>20525</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42287</v>
+        <v>42244</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04501522725134112</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02977777795146017</v>
+        <v>0.03096743078370028</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06380240354283319</v>
+        <v>0.06373690618859879</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4264,19 +4264,19 @@
         <v>19420</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11723</v>
+        <v>12328</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29853</v>
+        <v>30661</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02798929216340225</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01689579839112972</v>
+        <v>0.0177678619119199</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04302437909517089</v>
+        <v>0.04418877764631827</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>46</v>
@@ -4285,19 +4285,19 @@
         <v>49256</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36732</v>
+        <v>37066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66225</v>
+        <v>64712</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03630732622722311</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02707559404670519</v>
+        <v>0.02732181827331862</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04881519205461908</v>
+        <v>0.04769989425483198</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>632952</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>620501</v>
+        <v>620544</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>643052</v>
+        <v>642263</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9549847727486589</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9361975964571668</v>
+        <v>0.9362630938114008</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9702222220485398</v>
+        <v>0.9690325692162997</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>618</v>
@@ -4335,19 +4335,19 @@
         <v>674433</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>664000</v>
+        <v>663192</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>682130</v>
+        <v>681525</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9720107078365977</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9569756209048296</v>
+        <v>0.9558112223536818</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9831042016088705</v>
+        <v>0.9822321380880802</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1208</v>
@@ -4356,19 +4356,19 @@
         <v>1307385</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1290416</v>
+        <v>1291929</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1319909</v>
+        <v>1319575</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9636926737727769</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9511848079453811</v>
+        <v>0.9523001057451681</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9729244059532949</v>
+        <v>0.9726781817266814</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>18178</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10661</v>
+        <v>10949</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28465</v>
+        <v>27600</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02333263560905073</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01368380040402628</v>
+        <v>0.01405321945416932</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03653583377984874</v>
+        <v>0.03542615008147527</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -4481,19 +4481,19 @@
         <v>26185</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16446</v>
+        <v>17657</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37500</v>
+        <v>37956</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0318789514600084</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02002237855634454</v>
+        <v>0.0214959496954368</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04565363695398202</v>
+        <v>0.04620887359423791</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -4502,19 +4502,19 @@
         <v>44364</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32358</v>
+        <v>31472</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59378</v>
+        <v>59813</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02771872113672845</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02021756279767332</v>
+        <v>0.0196637224774739</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03709956844263618</v>
+        <v>0.03737188313614061</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>760920</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>750633</v>
+        <v>751498</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>768437</v>
+        <v>768149</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9766673643909493</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9634641662201513</v>
+        <v>0.9645738499185248</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9863161995959737</v>
+        <v>0.9859467805458306</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>731</v>
@@ -4552,19 +4552,19 @@
         <v>795210</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>783895</v>
+        <v>783439</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>804949</v>
+        <v>803738</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9681210485399916</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9543463630460179</v>
+        <v>0.9537911264057624</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9799776214436555</v>
+        <v>0.9785040503045633</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1431</v>
@@ -4573,19 +4573,19 @@
         <v>1556129</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1541115</v>
+        <v>1540680</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1568135</v>
+        <v>1569021</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9722812788632715</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9629004315573638</v>
+        <v>0.9626281168638594</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9797824372023266</v>
+        <v>0.9803362775225263</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>132288</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>110682</v>
+        <v>112018</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>158999</v>
+        <v>156848</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03860413220091996</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03229926944250913</v>
+        <v>0.03268903234787433</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04639888393738963</v>
+        <v>0.04577139515693036</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>140</v>
@@ -4698,19 +4698,19 @@
         <v>148779</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>125676</v>
+        <v>125692</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>171504</v>
+        <v>174394</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04186330862912364</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03536255506807281</v>
+        <v>0.03536719525182312</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0482577176488562</v>
+        <v>0.04907084107366125</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>263</v>
@@ -4719,19 +4719,19 @@
         <v>281066</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>249027</v>
+        <v>249684</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>314224</v>
+        <v>317575</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04026339950063997</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03567362293135719</v>
+        <v>0.03576772445043486</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04501323437503094</v>
+        <v>0.04549333223087636</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3294491</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3267780</v>
+        <v>3269931</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3316097</v>
+        <v>3314761</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.96139586779908</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9536011160626103</v>
+        <v>0.9542286048430697</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9677007305574908</v>
+        <v>0.9673109676521257</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3155</v>
@@ -4769,19 +4769,19 @@
         <v>3405137</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3382412</v>
+        <v>3379522</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3428240</v>
+        <v>3428224</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9581366913708763</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9517422823511439</v>
+        <v>0.9509291589263388</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9646374449319273</v>
+        <v>0.9646328047481769</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6241</v>
@@ -4790,19 +4790,19 @@
         <v>6699628</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6666470</v>
+        <v>6663119</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6731667</v>
+        <v>6731010</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.95973660049936</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9549867656249686</v>
+        <v>0.9545066677691235</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9643263770686428</v>
+        <v>0.964232275549565</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>8819</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4208</v>
+        <v>4201</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16631</v>
+        <v>16945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03002072433191623</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01432576133084145</v>
+        <v>0.01429913020512002</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05661531223349417</v>
+        <v>0.05768133786228875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -5159,19 +5159,19 @@
         <v>11511</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5659</v>
+        <v>6080</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20703</v>
+        <v>20022</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03987103786461833</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01960178565547766</v>
+        <v>0.02106086290984447</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07171165563374921</v>
+        <v>0.06935295580093086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -5180,19 +5180,19 @@
         <v>20330</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12577</v>
+        <v>12523</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31392</v>
+        <v>31426</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0349031120212219</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02159296973334962</v>
+        <v>0.02149959600780125</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05389543449372376</v>
+        <v>0.05395370647706781</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>284942</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>277130</v>
+        <v>276816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289553</v>
+        <v>289560</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9699792756680837</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9433846877665055</v>
+        <v>0.9423186621377112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9856742386691585</v>
+        <v>0.98570086979488</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -5230,19 +5230,19 @@
         <v>277192</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>268000</v>
+        <v>268681</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283044</v>
+        <v>282623</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9601289621353817</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9282883443662507</v>
+        <v>0.9306470441990692</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9803982143445223</v>
+        <v>0.9789391370901556</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>524</v>
@@ -5251,19 +5251,19 @@
         <v>562134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>551072</v>
+        <v>551038</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>569887</v>
+        <v>569941</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9650968879787781</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9461045655062762</v>
+        <v>0.9460462935229325</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9784070302666502</v>
+        <v>0.9785004039921988</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>20467</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13374</v>
+        <v>13199</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31055</v>
+        <v>31254</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0407240012254104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02661046531002823</v>
+        <v>0.0262634248013837</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06179131796375114</v>
+        <v>0.06218772414638608</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -5376,19 +5376,19 @@
         <v>25382</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16148</v>
+        <v>16138</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37329</v>
+        <v>37023</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04852399377336119</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03087164705866693</v>
+        <v>0.03085133850473098</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07136283797259556</v>
+        <v>0.07077762574214261</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -5397,19 +5397,19 @@
         <v>45849</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33589</v>
+        <v>32903</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59382</v>
+        <v>60104</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04470198012848951</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03274855366533239</v>
+        <v>0.03207948557612397</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05789664237069129</v>
+        <v>0.05860052167219795</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>482108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>471520</v>
+        <v>471321</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>489201</v>
+        <v>489376</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9592759987745896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9382086820362489</v>
+        <v>0.9378122758536139</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9733895346899717</v>
+        <v>0.9737365751986162</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>461</v>
@@ -5447,19 +5447,19 @@
         <v>497702</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>485755</v>
+        <v>486061</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>506936</v>
+        <v>506946</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9514760062266389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9286371620274048</v>
+        <v>0.9292223742578574</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.969128352941334</v>
+        <v>0.969148661495269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>915</v>
@@ -5468,19 +5468,19 @@
         <v>979810</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>966277</v>
+        <v>965555</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>992070</v>
+        <v>992756</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9552980198715105</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9421033576293086</v>
+        <v>0.941399478327802</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9672514463346676</v>
+        <v>0.9679205144238759</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>16626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9943</v>
+        <v>9775</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24469</v>
+        <v>25980</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05219063301761025</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03121271838167721</v>
+        <v>0.03068548442416023</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07680892916109705</v>
+        <v>0.081552163962115</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5593,19 +5593,19 @@
         <v>8287</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3189</v>
+        <v>3344</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17044</v>
+        <v>16804</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02464014182194343</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009481345761111547</v>
+        <v>0.009943575983059897</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05067960198949823</v>
+        <v>0.04996476384436158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -5614,19 +5614,19 @@
         <v>24913</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15290</v>
+        <v>15963</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35863</v>
+        <v>36070</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03804214307267723</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02334743212088477</v>
+        <v>0.02437493623860852</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05476298811148578</v>
+        <v>0.05507893915196203</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>301939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>294096</v>
+        <v>292585</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308622</v>
+        <v>308790</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9478093669823897</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9231910708389031</v>
+        <v>0.9184478360378852</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9687872816183228</v>
+        <v>0.9693145155758398</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -5664,19 +5664,19 @@
         <v>328022</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>319265</v>
+        <v>319505</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>333120</v>
+        <v>332965</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9753598581780566</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9493203980105017</v>
+        <v>0.9500352361556382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9905186542388885</v>
+        <v>0.9900564240169401</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>642</v>
@@ -5685,19 +5685,19 @@
         <v>629961</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>619011</v>
+        <v>618804</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>639584</v>
+        <v>638911</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9619578569273228</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9452370118885146</v>
+        <v>0.9449210608480374</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9766525678791153</v>
+        <v>0.9756250637613914</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>14286</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8412</v>
+        <v>8657</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22893</v>
+        <v>23600</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03861459909709655</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02273690350930389</v>
+        <v>0.02339873567192076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06187921635543905</v>
+        <v>0.06379067192169303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -5810,19 +5810,19 @@
         <v>35292</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23767</v>
+        <v>24963</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48492</v>
+        <v>48478</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09112822845635513</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06136914528925538</v>
+        <v>0.06445745796326617</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1252100252104953</v>
+        <v>0.1251742140605411</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -5831,19 +5831,19 @@
         <v>49578</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36493</v>
+        <v>36693</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65356</v>
+        <v>66396</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06547193361246005</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04819185821586426</v>
+        <v>0.04845640240134627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08630787944913858</v>
+        <v>0.08768065153079074</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>355678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>347071</v>
+        <v>346364</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>361552</v>
+        <v>361307</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9613854009029035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9381207836445611</v>
+        <v>0.936209328078307</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9772630964906961</v>
+        <v>0.9766012643280793</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>328</v>
@@ -5881,19 +5881,19 @@
         <v>351991</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>338791</v>
+        <v>338805</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>363516</v>
+        <v>362320</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9088717715436448</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8747899747895046</v>
+        <v>0.8748257859394586</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9386308547107445</v>
+        <v>0.9355425420367337</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>667</v>
@@ -5902,19 +5902,19 @@
         <v>707669</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>691891</v>
+        <v>690851</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>720754</v>
+        <v>720554</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9345280663875399</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.913692120550861</v>
+        <v>0.9123193484692094</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9518081417841349</v>
+        <v>0.9515435975986537</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>4407</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9830</v>
+        <v>9191</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02086523383665482</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007667268720801624</v>
+        <v>0.007683558690859256</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04654022473964972</v>
+        <v>0.04351280273577162</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6027,19 +6027,19 @@
         <v>4169</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1221</v>
+        <v>1100</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10424</v>
+        <v>10262</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01907304074860947</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005587657279485687</v>
+        <v>0.005031974593373538</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04768709387652115</v>
+        <v>0.04694791417296284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -6048,19 +6048,19 @@
         <v>8576</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4320</v>
+        <v>4011</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15583</v>
+        <v>15752</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01995378008957795</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01005053199948486</v>
+        <v>0.009332010408944182</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03625501881584642</v>
+        <v>0.03664969850916618</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>206814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201391</v>
+        <v>202030</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209602</v>
+        <v>209598</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9791347661633452</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9534597752603502</v>
+        <v>0.9564871972642284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9923327312791983</v>
+        <v>0.9923164413091408</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>219</v>
@@ -6098,19 +6098,19 @@
         <v>214418</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208163</v>
+        <v>208325</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217366</v>
+        <v>217487</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9809269592513905</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9523129061234787</v>
+        <v>0.9530520858270376</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9944123427205143</v>
+        <v>0.9949680254066265</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>426</v>
@@ -6119,19 +6119,19 @@
         <v>421232</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414225</v>
+        <v>414056</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>425488</v>
+        <v>425797</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9800462199104221</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9637449811841537</v>
+        <v>0.9633503014908337</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9899494680005153</v>
+        <v>0.9906679895910557</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>6492</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2679</v>
+        <v>2609</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14165</v>
+        <v>14518</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02467119514467877</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01018167399055886</v>
+        <v>0.009917210256226076</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05383508038381774</v>
+        <v>0.05517574366591863</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -6244,19 +6244,19 @@
         <v>15052</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8289</v>
+        <v>8749</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24090</v>
+        <v>25574</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05511381071395386</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03035017921057251</v>
+        <v>0.03203259135768676</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08820355923527301</v>
+        <v>0.09363668803992094</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -6265,19 +6265,19 @@
         <v>21544</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13642</v>
+        <v>12719</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32210</v>
+        <v>33656</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04017612946564533</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02544008100671612</v>
+        <v>0.02371964060361785</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06006731848884122</v>
+        <v>0.06276381233729535</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>256631</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248958</v>
+        <v>248605</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260444</v>
+        <v>260514</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9753288048553213</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9461649196161822</v>
+        <v>0.9448242563340813</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9898183260094412</v>
+        <v>0.9900827897437739</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>250</v>
@@ -6315,19 +6315,19 @@
         <v>258063</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>249025</v>
+        <v>247541</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>264826</v>
+        <v>264366</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9448861892860462</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.911796440764727</v>
+        <v>0.906363311960079</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9696498207894275</v>
+        <v>0.9679674086423132</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>503</v>
@@ -6336,19 +6336,19 @@
         <v>514694</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>504028</v>
+        <v>502582</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>522596</v>
+        <v>523519</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9598238705343547</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9399326815111588</v>
+        <v>0.9372361876627048</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9745599189932839</v>
+        <v>0.9762803593963821</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>22086</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13908</v>
+        <v>14351</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34273</v>
+        <v>34261</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03363909945750972</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02118315901066231</v>
+        <v>0.02185754172863882</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05220048157944702</v>
+        <v>0.05218269601483306</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -6461,19 +6461,19 @@
         <v>27522</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17758</v>
+        <v>18216</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40331</v>
+        <v>39502</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03981267700354436</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02568773193101192</v>
+        <v>0.02635004039134639</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05834181548231496</v>
+        <v>0.05714180864829966</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -6482,19 +6482,19 @@
         <v>49608</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36859</v>
+        <v>36065</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66320</v>
+        <v>65007</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03680543903099032</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02734672881679101</v>
+        <v>0.0267575411692461</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0492043274715185</v>
+        <v>0.04823016586962933</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>634472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>622285</v>
+        <v>622297</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>642650</v>
+        <v>642207</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9663609005424902</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9477995184205528</v>
+        <v>0.9478173039851667</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9788168409893374</v>
+        <v>0.978142458271361</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>623</v>
@@ -6532,19 +6532,19 @@
         <v>663772</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>650963</v>
+        <v>651792</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>673536</v>
+        <v>673078</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9601873229964556</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9416581845176847</v>
+        <v>0.9428581913517007</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9743122680689881</v>
+        <v>0.9736499596086537</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1183</v>
@@ -6553,19 +6553,19 @@
         <v>1298244</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1281532</v>
+        <v>1282845</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1310993</v>
+        <v>1311787</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9631945609690097</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9507956725284816</v>
+        <v>0.9517698341303703</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.972653271183209</v>
+        <v>0.9732424588307537</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>34375</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23579</v>
+        <v>25348</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47227</v>
+        <v>49666</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04415027218437967</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03028425838110942</v>
+        <v>0.03255611992285036</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06065813440621304</v>
+        <v>0.06378976981955159</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -6678,19 +6678,19 @@
         <v>32312</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22061</v>
+        <v>22279</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44970</v>
+        <v>45406</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03911037243798785</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02670327059584995</v>
+        <v>0.02696729718938333</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05443230673571708</v>
+        <v>0.05495953038905663</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -6699,19 +6699,19 @@
         <v>66686</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49940</v>
+        <v>52041</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83607</v>
+        <v>85113</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04155560082312627</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03112015359901725</v>
+        <v>0.03242953682062132</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05209968447879056</v>
+        <v>0.05303812778731031</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>744208</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>731356</v>
+        <v>728917</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>755004</v>
+        <v>753235</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9558497278156204</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9393418655937869</v>
+        <v>0.9362102301804482</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9697157416188905</v>
+        <v>0.9674438800771497</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>727</v>
@@ -6749,19 +6749,19 @@
         <v>793855</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>781197</v>
+        <v>780761</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>804106</v>
+        <v>803888</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9608896275620121</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9455676932642832</v>
+        <v>0.9450404696109433</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9732967294041501</v>
+        <v>0.9730327028106168</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1443</v>
@@ -6770,19 +6770,19 @@
         <v>1538064</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1521143</v>
+        <v>1519637</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1554810</v>
+        <v>1552709</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9584443991768737</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9479003155212095</v>
+        <v>0.9469618722126897</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9688798464009831</v>
+        <v>0.9675704631793787</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>127557</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>104863</v>
+        <v>107826</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>149149</v>
+        <v>151503</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03757930392139987</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03089336057258889</v>
+        <v>0.03176631023465</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04394030794799772</v>
+        <v>0.04463377889262642</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>138</v>
@@ -6895,19 +6895,19 @@
         <v>159528</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>133641</v>
+        <v>135759</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>185258</v>
+        <v>188514</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04500655351397451</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03770325815068848</v>
+        <v>0.03830071900844918</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05226565948280988</v>
+        <v>0.05318422671458131</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>266</v>
@@ -6916,19 +6916,19 @@
         <v>287085</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>253915</v>
+        <v>252256</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>322102</v>
+        <v>321697</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04137330976841951</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03659295757652977</v>
+        <v>0.03635389394962036</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04641976603389505</v>
+        <v>0.04636137467478451</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3266793</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3245201</v>
+        <v>3242847</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3289487</v>
+        <v>3286524</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9624206960786001</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9560596920520015</v>
+        <v>0.9553662211073738</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9691066394274108</v>
+        <v>0.9682336897653503</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3200</v>
@@ -6966,19 +6966,19 @@
         <v>3385014</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3359284</v>
+        <v>3356028</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3410901</v>
+        <v>3408783</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9549934464860255</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9477343405171903</v>
+        <v>0.9468157732854189</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9622967418493116</v>
+        <v>0.9616992809915509</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6303</v>
@@ -6987,19 +6987,19 @@
         <v>6651807</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6616790</v>
+        <v>6617195</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6684977</v>
+        <v>6686636</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9586266902315805</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.953580233966105</v>
+        <v>0.9536386253252155</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9634070424234702</v>
+        <v>0.9636461060503798</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>15695</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9836</v>
+        <v>10325</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24317</v>
+        <v>24242</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04922599129911716</v>
+        <v>0.04922599129911717</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03084997429068638</v>
+        <v>0.03238272742282343</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0762653829134006</v>
+        <v>0.07603126316211727</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -7356,19 +7356,19 @@
         <v>9693</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5567</v>
+        <v>5655</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15289</v>
+        <v>15872</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03066929908766969</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01761271905977544</v>
+        <v>0.01789161967131154</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04837487119611143</v>
+        <v>0.05021765720775708</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -7377,19 +7377,19 @@
         <v>25389</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18168</v>
+        <v>18555</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33800</v>
+        <v>34406</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03998833915334891</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02861589975955332</v>
+        <v>0.02922458468854414</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05323567614687869</v>
+        <v>0.05419147426157749</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>303150</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>294528</v>
+        <v>294603</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>309009</v>
+        <v>308520</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9507740087008829</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.923734617086599</v>
+        <v>0.9239687368378825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9691500257093135</v>
+        <v>0.9676172725771764</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>521</v>
@@ -7427,19 +7427,19 @@
         <v>306368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>300772</v>
+        <v>300189</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310494</v>
+        <v>310406</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9693307009123304</v>
+        <v>0.9693307009123303</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9516251288038886</v>
+        <v>0.9497823427922429</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9823872809402245</v>
+        <v>0.9821083803286884</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>831</v>
@@ -7448,19 +7448,19 @@
         <v>609517</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>601106</v>
+        <v>600500</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>616738</v>
+        <v>616351</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9600116608466511</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9467643238531214</v>
+        <v>0.9458085257384224</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9713841002404465</v>
+        <v>0.9707754153114558</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>28566</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19048</v>
+        <v>19065</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40141</v>
+        <v>40374</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05407427291283554</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03605576999935948</v>
+        <v>0.03608816743569092</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07598500451617664</v>
+        <v>0.0764264651650042</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -7573,19 +7573,19 @@
         <v>23538</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16353</v>
+        <v>16958</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31998</v>
+        <v>32412</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04317234238860699</v>
+        <v>0.043172342388607</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02999337561140076</v>
+        <v>0.03110479967738188</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05869002212796701</v>
+        <v>0.05944975232839789</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -7594,19 +7594,19 @@
         <v>52104</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40250</v>
+        <v>39881</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66220</v>
+        <v>66669</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04853736682910388</v>
+        <v>0.04853736682910389</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03749484125539825</v>
+        <v>0.03715066882922184</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06168714458665921</v>
+        <v>0.06210574923895246</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>499713</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>488138</v>
+        <v>487905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>509231</v>
+        <v>509214</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9459257270871646</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9240149954838235</v>
+        <v>0.9235735348349958</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9639442300006407</v>
+        <v>0.9639118325643091</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>679</v>
@@ -7644,19 +7644,19 @@
         <v>521666</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>513206</v>
+        <v>512792</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>528851</v>
+        <v>528246</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9568276576113929</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9413099778720335</v>
+        <v>0.940550247671602</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9700066243885994</v>
+        <v>0.9688952003226181</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1032</v>
@@ -7665,19 +7665,19 @@
         <v>1021378</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1007262</v>
+        <v>1006813</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1033232</v>
+        <v>1033601</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9514626331708961</v>
+        <v>0.9514626331708963</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9383128554133414</v>
+        <v>0.9378942507610478</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9625051587446019</v>
+        <v>0.9628493311707783</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>19206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12729</v>
+        <v>13318</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27019</v>
+        <v>28017</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06077895819257279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04028298431117369</v>
+        <v>0.04214628155934558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08550603400573745</v>
+        <v>0.08866452107851051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -7790,19 +7790,19 @@
         <v>22983</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16174</v>
+        <v>17657</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30488</v>
+        <v>30464</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06448983556610159</v>
+        <v>0.06448983556610161</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04538429719142351</v>
+        <v>0.04954563522332585</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08554779349530488</v>
+        <v>0.08548183904545992</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -7811,19 +7811,19 @@
         <v>42189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32661</v>
+        <v>33387</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51765</v>
+        <v>52262</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06274584855442412</v>
+        <v>0.06274584855442411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04857514226143771</v>
+        <v>0.04965493386681917</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07698831240237333</v>
+        <v>0.07772763683170204</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>296787</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>288974</v>
+        <v>287976</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303264</v>
+        <v>302675</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9392210418074274</v>
+        <v>0.9392210418074272</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9144939659942626</v>
+        <v>0.9113354789214896</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9597170156888263</v>
+        <v>0.9578537184406544</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>492</v>
@@ -7861,19 +7861,19 @@
         <v>333398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>325893</v>
+        <v>325917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>340207</v>
+        <v>338724</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9355101644338985</v>
+        <v>0.9355101644338983</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9144522065046951</v>
+        <v>0.9145181609545401</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9546157028085762</v>
+        <v>0.9504543647766742</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>822</v>
@@ -7882,19 +7882,19 @@
         <v>630186</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>620610</v>
+        <v>620113</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>639714</v>
+        <v>638988</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.937254151445576</v>
+        <v>0.9372541514455758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9230116875976269</v>
+        <v>0.9222723631682979</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9514248577385626</v>
+        <v>0.9503450661331808</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>21095</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14052</v>
+        <v>14356</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29943</v>
+        <v>30022</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05653165274021822</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03765895853926042</v>
+        <v>0.03847398879892928</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08024405310726661</v>
+        <v>0.08045566917512137</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -8007,19 +8007,19 @@
         <v>17477</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11553</v>
+        <v>11428</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28541</v>
+        <v>27785</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04141780005497363</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02737860423831974</v>
+        <v>0.02708338578390933</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06763854164103526</v>
+        <v>0.06584769301205283</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -8028,19 +8028,19 @@
         <v>38571</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28454</v>
+        <v>28311</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50927</v>
+        <v>52488</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04851076311257031</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03578649892505718</v>
+        <v>0.0356066299877907</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06405016337872428</v>
+        <v>0.06601416138846901</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>352050</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>343202</v>
+        <v>343123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359093</v>
+        <v>358789</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9434683472597819</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9197559468927332</v>
+        <v>0.9195443308248785</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9623410414607396</v>
+        <v>0.9615260112010706</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>568</v>
@@ -8078,19 +8078,19 @@
         <v>404484</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>393420</v>
+        <v>394176</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>410408</v>
+        <v>410533</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9585821999450266</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9323614583589647</v>
+        <v>0.9341523069879473</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9726213957616803</v>
+        <v>0.9729166142160907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>831</v>
@@ -8099,19 +8099,19 @@
         <v>756536</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>744180</v>
+        <v>742619</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>766653</v>
+        <v>766796</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9514892368874296</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9359498366212758</v>
+        <v>0.9339858386115309</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9642135010749433</v>
+        <v>0.9643933700122094</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>6695</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3765</v>
+        <v>3721</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11143</v>
+        <v>11872</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03255465477654844</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01830882516365441</v>
+        <v>0.01809307057338392</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05418004645754147</v>
+        <v>0.05772675138739142</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -8224,19 +8224,19 @@
         <v>7400</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4448</v>
+        <v>4726</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11401</v>
+        <v>11351</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03268103584578382</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01964503274969365</v>
+        <v>0.02087400905239644</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05035103777605791</v>
+        <v>0.05013294029822472</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -8245,19 +8245,19 @@
         <v>14095</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9473</v>
+        <v>9845</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20097</v>
+        <v>19793</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0326208810478812</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02192307818192088</v>
+        <v>0.02278512535769101</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04651048800774564</v>
+        <v>0.04580730982742696</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>198970</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194522</v>
+        <v>193793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201900</v>
+        <v>201944</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9674453452234514</v>
+        <v>0.9674453452234515</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9458199535424592</v>
+        <v>0.9422732486126082</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9816911748363455</v>
+        <v>0.9819069294266158</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>472</v>
@@ -8295,19 +8295,19 @@
         <v>219023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>215022</v>
+        <v>215072</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221975</v>
+        <v>221697</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9673189641542164</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9496489622239421</v>
+        <v>0.9498670597017753</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9803549672503065</v>
+        <v>0.9791259909476038</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>739</v>
@@ -8316,19 +8316,19 @@
         <v>417992</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>411990</v>
+        <v>412294</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>422614</v>
+        <v>422242</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9673791189521188</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9534895119922543</v>
+        <v>0.9541926901725729</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9780769218180791</v>
+        <v>0.9772148746423091</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>20545</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14611</v>
+        <v>14774</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27879</v>
+        <v>28291</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07589225519452704</v>
+        <v>0.07589225519452703</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05397444257956855</v>
+        <v>0.0545745760982685</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1029844051182394</v>
+        <v>0.1045085292705909</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -8441,19 +8441,19 @@
         <v>16873</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11840</v>
+        <v>12436</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22391</v>
+        <v>22948</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06413026085887265</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04500215893485308</v>
+        <v>0.04726645048368401</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08510316224223058</v>
+        <v>0.08722042230399132</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -8462,19 +8462,19 @@
         <v>37417</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29807</v>
+        <v>29655</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46344</v>
+        <v>46059</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0700950736095115</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05583851980988967</v>
+        <v>0.05555306092870314</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08681836092329295</v>
+        <v>0.08628414503952611</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>250162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>242828</v>
+        <v>242416</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256096</v>
+        <v>255933</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.924107744805473</v>
+        <v>0.9241077448054731</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8970155948817609</v>
+        <v>0.8954914707294094</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9460255574204316</v>
+        <v>0.9454254239017319</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>417</v>
@@ -8512,19 +8512,19 @@
         <v>246226</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240708</v>
+        <v>240151</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>251259</v>
+        <v>250663</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9358697391411273</v>
+        <v>0.9358697391411274</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9148968377577695</v>
+        <v>0.9127795776960086</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9549978410651467</v>
+        <v>0.9527335495163161</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>750</v>
@@ -8533,19 +8533,19 @@
         <v>496389</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>487462</v>
+        <v>487747</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>503999</v>
+        <v>504151</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9299049263904887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9131816390767072</v>
+        <v>0.9137158549604739</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9441614801901103</v>
+        <v>0.9444469390712968</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>46933</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34460</v>
+        <v>34343</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62619</v>
+        <v>63516</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06529192210331114</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04793937988786953</v>
+        <v>0.04777660247090541</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08711350948495981</v>
+        <v>0.08836166476176562</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -8658,19 +8658,19 @@
         <v>41427</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31774</v>
+        <v>30823</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>52360</v>
+        <v>53738</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05379983559722647</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04126363591442166</v>
+        <v>0.04002965044494514</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06799820302764593</v>
+        <v>0.06978870932321263</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -8679,19 +8679,19 @@
         <v>88360</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73499</v>
+        <v>71596</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>108473</v>
+        <v>106778</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0593482870156511</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04936700542307309</v>
+        <v>0.04808839092633527</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07285792762152213</v>
+        <v>0.07171913467724376</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>671886</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>656200</v>
+        <v>655303</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>684359</v>
+        <v>684476</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9347080778966887</v>
+        <v>0.9347080778966889</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9128864905150408</v>
+        <v>0.9116383352382347</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9520606201121304</v>
+        <v>0.9522233975290946</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>901</v>
@@ -8729,19 +8729,19 @@
         <v>728589</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>717656</v>
+        <v>716278</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>738242</v>
+        <v>739193</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9462001644027735</v>
+        <v>0.9462001644027737</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9320017969723541</v>
+        <v>0.9302112906767872</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9587363640855783</v>
+        <v>0.9599703495550548</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1454</v>
@@ -8750,19 +8750,19 @@
         <v>1400475</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1380362</v>
+        <v>1382057</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1415336</v>
+        <v>1417239</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.940651712984349</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9271420723784779</v>
+        <v>0.9282808653227563</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.950632994576927</v>
+        <v>0.9519116090736648</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>32230</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24276</v>
+        <v>23499</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44516</v>
+        <v>43015</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04038493065271206</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03041862408849017</v>
+        <v>0.02944426905131401</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05577922363046873</v>
+        <v>0.05389822446599298</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -8875,19 +8875,19 @@
         <v>23638</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16852</v>
+        <v>17442</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32770</v>
+        <v>32167</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02845875034273537</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02028907007545477</v>
+        <v>0.02099931392603716</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03945275034253994</v>
+        <v>0.03872717101787918</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>80</v>
@@ -8896,19 +8896,19 @@
         <v>55868</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>45431</v>
+        <v>43793</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70443</v>
+        <v>68101</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03430271337832747</v>
+        <v>0.03430271337832748</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02789451412964064</v>
+        <v>0.02688864237406911</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04325165465097155</v>
+        <v>0.04181376842755953</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>765842</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>753556</v>
+        <v>755057</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>773796</v>
+        <v>774573</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.959615069347288</v>
+        <v>0.9596150693472878</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9442207763695311</v>
+        <v>0.9461017755340069</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9695813759115096</v>
+        <v>0.9705557309486861</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1023</v>
@@ -8946,19 +8946,19 @@
         <v>806971</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>797839</v>
+        <v>798442</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>813757</v>
+        <v>813167</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9715412496572646</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9605472496574601</v>
+        <v>0.9612728289821207</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.979710929924545</v>
+        <v>0.9790006860739628</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1743</v>
@@ -8967,19 +8967,19 @@
         <v>1572813</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1558238</v>
+        <v>1560580</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1583250</v>
+        <v>1584888</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9656972866216725</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9567483453490289</v>
+        <v>0.9581862315724403</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9721054858703593</v>
+        <v>0.9731113576259308</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>190965</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>167357</v>
+        <v>166303</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>220078</v>
+        <v>217632</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.05410503543048416</v>
+        <v>0.05410503543048414</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04741618525527302</v>
+        <v>0.04711764813906169</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06235354359166959</v>
+        <v>0.06166053660621145</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>282</v>
@@ -9092,19 +9092,19 @@
         <v>163028</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>145643</v>
+        <v>143823</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>186898</v>
+        <v>184256</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04371010781369578</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03904907007757224</v>
+        <v>0.03856094985357014</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05010991922348631</v>
+        <v>0.04940168977955887</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>526</v>
@@ -9113,19 +9113,19 @@
         <v>353993</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>323552</v>
+        <v>322935</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>387987</v>
+        <v>390617</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.048764213079194</v>
+        <v>0.04876421307919401</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04457084396881287</v>
+        <v>0.04448581522979106</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05344702660870623</v>
+        <v>0.05380932543341041</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3338561</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3309448</v>
+        <v>3311894</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3362169</v>
+        <v>3363223</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9458949645695159</v>
+        <v>0.9458949645695158</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9376464564083301</v>
+        <v>0.9383394633937887</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9525838147447269</v>
+        <v>0.9528823518609382</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5073</v>
@@ -9163,19 +9163,19 @@
         <v>3566726</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3542856</v>
+        <v>3545498</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3584111</v>
+        <v>3585931</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.956289892186304</v>
+        <v>0.9562898921863043</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.949890080776514</v>
+        <v>0.9505983102204413</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9609509299224278</v>
+        <v>0.9614390501464303</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8202</v>
@@ -9184,19 +9184,19 @@
         <v>6905287</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6871293</v>
+        <v>6868663</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6935728</v>
+        <v>6936345</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9512357869208061</v>
+        <v>0.9512357869208059</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9465529733912937</v>
+        <v>0.946190674566589</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9554291560311871</v>
+        <v>0.9555141847702089</v>
       </c>
     </row>
     <row r="30">
